--- a/downloaded_files/CMPS202_Tutorial-35686.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35686.xlsx
@@ -111,15 +111,6 @@
     <x:t>زياد احمد حسن عبده الخياط</x:t>
   </x:si>
   <x:si>
-    <x:t>1210232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230045</x:t>
   </x:si>
   <x:si>
@@ -180,6 +171,15 @@
     <x:t>omar abozeid hamam</x:t>
   </x:si>
   <x:si>
+    <x:t>1210067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد عبد الصمد ذكى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230220</x:t>
   </x:si>
   <x:si>
@@ -198,6 +198,15 @@
     <x:t xml:space="preserve">Omar Wael Ali Omar </x:t>
   </x:si>
   <x:si>
+    <x:t>1210021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو محمد صديق جاد الرب محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Mohamed Seddeek Gad Elrab Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>2240006</x:t>
   </x:si>
   <x:si>
@@ -205,15 +214,6 @@
   </x:si>
   <x:si>
     <x:t>fares</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
     <x:t>1230086</x:t>
@@ -1105,7 +1105,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45915.7356074884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1137,7 +1137,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.7356074884</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1169,7 +1169,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1197,11 +1197,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1224,14 +1222,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1263,7 +1263,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1295,7 +1295,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1327,7 +1327,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45929.3419348727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1423,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4281835648</x:v>
+        <x:v>45929.3454971875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1455,7 +1455,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45907.4281835648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35686.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35686.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1210403</x:t>
